--- a/Task_3/processed/excels/Mar 2018-18-20.xlsx
+++ b/Task_3/processed/excels/Mar 2018-18-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRI\Task_3\processed\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17436259-6F51-44C2-A1EE-301DA48298FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB9CC3F-9776-4981-AC31-C003A194884D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="149">
   <si>
     <t>STATION</t>
   </si>
@@ -939,34 +939,7 @@
     <t>HYDRO</t>
   </si>
   <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Thermal - Coal Lignite</t>
-  </si>
-  <si>
-    <t>Thermal - Gas Naptha Diesel</t>
-  </si>
-  <si>
-    <t>Wind - Solar</t>
-  </si>
-  <si>
-    <t>IPP  - Lignite Thermal</t>
-  </si>
-  <si>
-    <t>IPP  - Gas Naptha Diesel</t>
-  </si>
-  <si>
-    <t>IPP  - Wind Solar Others</t>
-  </si>
-  <si>
-    <t>Thermal - Coal</t>
-  </si>
-  <si>
     <t>Central Sector</t>
-  </si>
-  <si>
-    <t>Thermal - Lignite</t>
   </si>
   <si>
     <t>Nuclear</t>
@@ -977,6 +950,33 @@
   <si>
     <t>Energy generation From 01-04-17
 To 31-03-2018</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Coal Lignite</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Naptha</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Co-generation</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -986,7 +986,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -997,11 +997,13 @@
       <b/>
       <sz val="11.5"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1012,11 +1014,13 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1041,30 +1045,7 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <u/>
-      <sz val="11.5"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11.5"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -1073,15 +1054,18 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1285,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1418,9 +1402,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
@@ -1454,44 +1435,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1831,1337 +1812,1367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" style="44" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="16" style="44" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" style="44" customWidth="1"/>
-    <col min="7" max="16384" width="9.33203125" style="44"/>
+    <col min="1" max="1" width="38" style="59" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="59" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="26" style="59" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="59" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="61">
+        <v>58.95</v>
+      </c>
+      <c r="C2" s="61">
+        <v>0</v>
+      </c>
+      <c r="D2" s="61">
+        <v>0.97</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="63">
-        <v>58.95</v>
-      </c>
-      <c r="C2" s="63">
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="61">
+        <v>2</v>
+      </c>
+      <c r="C3" s="61">
+        <v>0.88</v>
+      </c>
+      <c r="D3" s="61">
+        <v>3.4</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="61">
+        <v>150</v>
+      </c>
+      <c r="C4" s="61">
+        <v>39.19</v>
+      </c>
+      <c r="D4" s="61">
+        <v>233.06</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="61">
+        <v>36</v>
+      </c>
+      <c r="C5" s="61">
+        <v>13.27</v>
+      </c>
+      <c r="D5" s="61">
+        <v>79.709999999999994</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="61">
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="61">
+        <v>0.13</v>
+      </c>
+      <c r="D6" s="61">
+        <v>0.64</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="61">
+        <v>60</v>
+      </c>
+      <c r="C7" s="61">
+        <v>18.98</v>
+      </c>
+      <c r="D7" s="61">
+        <v>115.09</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="61">
+        <v>175</v>
+      </c>
+      <c r="C8" s="61">
+        <v>50.24</v>
+      </c>
+      <c r="D8" s="61">
+        <v>336.87</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="61">
+        <v>180</v>
+      </c>
+      <c r="C9" s="61">
+        <v>22.58</v>
+      </c>
+      <c r="D9" s="61">
+        <v>172.26</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="61">
+        <v>100</v>
+      </c>
+      <c r="C10" s="61">
+        <v>3.39</v>
+      </c>
+      <c r="D10" s="61">
+        <v>72.48</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="61">
+        <v>40</v>
+      </c>
+      <c r="C11" s="61">
+        <v>7.55</v>
+      </c>
+      <c r="D11" s="61">
+        <v>39.25</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="61">
+        <v>35</v>
+      </c>
+      <c r="C12" s="61">
+        <v>4.99</v>
+      </c>
+      <c r="D12" s="61">
+        <v>66.75</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="61">
+        <v>400</v>
+      </c>
+      <c r="C13" s="61">
+        <v>48.73</v>
+      </c>
+      <c r="D13" s="61">
+        <v>341.26</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="61">
+        <v>60</v>
+      </c>
+      <c r="C14" s="61">
         <v>0</v>
       </c>
-      <c r="D2" s="63">
-        <v>0.97</v>
-      </c>
-      <c r="E2" s="57" t="s">
+      <c r="D14" s="61">
+        <v>93.72</v>
+      </c>
+      <c r="E14" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F14" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="61">
+        <v>2</v>
+      </c>
+      <c r="C15" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="D15" s="61">
+        <v>0.42</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="61">
+        <v>50</v>
+      </c>
+      <c r="C16" s="61">
+        <v>1.46</v>
+      </c>
+      <c r="D16" s="61">
+        <v>51.01</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="61">
+        <v>200</v>
+      </c>
+      <c r="C17" s="61">
+        <v>0</v>
+      </c>
+      <c r="D17" s="61">
+        <v>142.35</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="61">
+        <v>120</v>
+      </c>
+      <c r="C18" s="61">
+        <v>1.7</v>
+      </c>
+      <c r="D18" s="61">
+        <v>113.22</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="61">
+        <v>8</v>
+      </c>
+      <c r="C19" s="61">
+        <v>0</v>
+      </c>
+      <c r="D19" s="61">
+        <v>12.18</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="61">
+        <v>140</v>
+      </c>
+      <c r="C20" s="61">
+        <v>0</v>
+      </c>
+      <c r="D20" s="61">
+        <v>248.72</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="61">
+        <v>6</v>
+      </c>
+      <c r="C21" s="61">
+        <v>0</v>
+      </c>
+      <c r="D21" s="61">
+        <v>5.62</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="61">
+        <v>32</v>
+      </c>
+      <c r="C22" s="61">
+        <v>6.71</v>
+      </c>
+      <c r="D22" s="61">
+        <v>87.02</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="61">
+        <v>20</v>
+      </c>
+      <c r="C23" s="61">
+        <v>0</v>
+      </c>
+      <c r="D23" s="61">
+        <v>19.54</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="61">
+        <v>30</v>
+      </c>
+      <c r="C24" s="61">
+        <v>0</v>
+      </c>
+      <c r="D24" s="61">
+        <v>95.54</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="61">
+        <v>95</v>
+      </c>
+      <c r="C25" s="61">
+        <v>0</v>
+      </c>
+      <c r="D25" s="61">
+        <v>152.26</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="61">
+        <v>100</v>
+      </c>
+      <c r="C26" s="61">
+        <v>0.16</v>
+      </c>
+      <c r="D26" s="61">
+        <v>109.96</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="61">
+        <v>8</v>
+      </c>
+      <c r="C27" s="61">
+        <v>0</v>
+      </c>
+      <c r="D27" s="61">
+        <v>3.71</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="61">
+        <v>7.5</v>
+      </c>
+      <c r="C28" s="61">
+        <v>3.12</v>
+      </c>
+      <c r="D28" s="61">
+        <v>10.23</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="61">
+        <v>30</v>
+      </c>
+      <c r="C29" s="61">
+        <v>3.12</v>
+      </c>
+      <c r="D29" s="61">
+        <v>10.19</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="61">
+        <v>15.7</v>
+      </c>
+      <c r="C30" s="61">
+        <v>0.13</v>
+      </c>
+      <c r="D30" s="61">
+        <v>21.74</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="61">
+        <v>60</v>
+      </c>
+      <c r="C31" s="61">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D31" s="61">
+        <v>58.31</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="61">
+        <v>450</v>
+      </c>
+      <c r="C32" s="61">
+        <v>0</v>
+      </c>
+      <c r="D32" s="61">
+        <v>0</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="61">
+        <v>1050</v>
+      </c>
+      <c r="C33" s="61">
+        <v>657.04</v>
+      </c>
+      <c r="D33" s="61">
+        <v>5427.55</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="61">
+        <v>1440</v>
+      </c>
+      <c r="C34" s="61">
+        <v>874.2</v>
+      </c>
+      <c r="D34" s="61">
+        <v>7873</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="61">
+        <v>1830</v>
+      </c>
+      <c r="C35" s="61">
+        <v>1188.93</v>
+      </c>
+      <c r="D35" s="61">
+        <v>10146.030000000001</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="61">
+        <v>120</v>
+      </c>
+      <c r="C36" s="61">
+        <v>0</v>
+      </c>
+      <c r="D36" s="61">
+        <v>6.11</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="61">
+        <v>107.88</v>
+      </c>
+      <c r="C37" s="61">
+        <v>23.78</v>
+      </c>
+      <c r="D37" s="61">
+        <v>305.08999999999997</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="61">
+        <v>95</v>
+      </c>
+      <c r="C38" s="61">
+        <v>54.17</v>
+      </c>
+      <c r="D38" s="61">
+        <v>688.9</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="61">
+        <v>92</v>
+      </c>
+      <c r="C39" s="61">
+        <v>54.56</v>
+      </c>
+      <c r="D39" s="61">
+        <v>602.86</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="61">
+        <v>101</v>
+      </c>
+      <c r="C40" s="61">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="D40" s="61">
+        <v>362.21</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" s="64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="61">
+        <v>17.47</v>
+      </c>
+      <c r="C41" s="61">
+        <v>0</v>
+      </c>
+      <c r="D41" s="61">
+        <v>0</v>
+      </c>
+      <c r="E41" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="I41" s="64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="61">
+        <v>600</v>
+      </c>
+      <c r="C42" s="61">
+        <v>305.44</v>
+      </c>
+      <c r="D42" s="61">
+        <v>3531.01</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" s="64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="61">
+        <v>250</v>
+      </c>
+      <c r="C43" s="61">
+        <v>130.04</v>
+      </c>
+      <c r="D43" s="61">
+        <v>903.19</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43" s="64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="61">
+        <v>196</v>
+      </c>
+      <c r="C44" s="61">
+        <v>0</v>
+      </c>
+      <c r="D44" s="61">
+        <v>0</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="61">
+        <v>105.66</v>
+      </c>
+      <c r="C45" s="61">
+        <v>0</v>
+      </c>
+      <c r="D45" s="61">
+        <v>0</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="I45" s="63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="61">
+        <v>106</v>
+      </c>
+      <c r="C46" s="61">
+        <v>0</v>
+      </c>
+      <c r="D46" s="61">
+        <v>0</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="I46" s="63" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="61">
+        <v>330.5</v>
+      </c>
+      <c r="C47" s="61">
+        <v>0</v>
+      </c>
+      <c r="D47" s="61">
+        <v>0</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="I47" s="63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="61">
+        <v>113.2</v>
+      </c>
+      <c r="C48" s="61">
+        <v>41.96</v>
+      </c>
+      <c r="D48" s="61">
+        <v>474.19</v>
+      </c>
+      <c r="E48" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" s="63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="61">
+        <v>52.8</v>
+      </c>
+      <c r="C49" s="61">
+        <v>30.57</v>
+      </c>
+      <c r="D49" s="61">
+        <v>371.39</v>
+      </c>
+      <c r="E49" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" s="63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="61">
+        <v>7895.49</v>
+      </c>
+      <c r="C50" s="61">
+        <v>332.24</v>
+      </c>
+      <c r="D50" s="61">
+        <v>9307.48</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="61">
+        <v>1950</v>
+      </c>
+      <c r="C51" s="61">
+        <v>295.44</v>
+      </c>
+      <c r="D51" s="61">
+        <v>2714.63</v>
+      </c>
+      <c r="E51" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="61">
+        <v>673.4</v>
+      </c>
+      <c r="C52" s="65">
+        <v>799.61</v>
+      </c>
+      <c r="D52" s="66">
+        <v>6159.76</v>
+      </c>
+      <c r="E52" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="61">
+        <v>234.5</v>
+      </c>
+      <c r="C53" s="65"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="67">
+        <v>2600</v>
+      </c>
+      <c r="C54" s="61">
+        <v>1779.03</v>
+      </c>
+      <c r="D54" s="61">
+        <v>19580.29</v>
+      </c>
+      <c r="E54" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="63" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="63">
-        <v>2</v>
-      </c>
-      <c r="C3" s="63">
-        <v>0.88</v>
-      </c>
-      <c r="D3" s="63">
-        <v>3.4</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="58" t="s">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="67">
+        <v>2000</v>
+      </c>
+      <c r="C55" s="61">
+        <v>1476.83</v>
+      </c>
+      <c r="D55" s="61">
+        <v>15444.79</v>
+      </c>
+      <c r="E55" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="63" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="63">
-        <v>150</v>
-      </c>
-      <c r="C4" s="63">
-        <v>39.19</v>
-      </c>
-      <c r="D4" s="63">
-        <v>233.06</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="58" t="s">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="67">
+        <v>1000</v>
+      </c>
+      <c r="C56" s="61">
+        <v>574.67999999999995</v>
+      </c>
+      <c r="D56" s="61">
+        <v>5815.55</v>
+      </c>
+      <c r="E56" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="63" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="63">
-        <v>36</v>
-      </c>
-      <c r="C5" s="63">
-        <v>13.27</v>
-      </c>
-      <c r="D5" s="63">
-        <v>79.709999999999994</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="58" t="s">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="67">
+        <v>1500</v>
+      </c>
+      <c r="C57" s="61">
+        <v>701.69</v>
+      </c>
+      <c r="D57" s="61">
+        <v>7862.1</v>
+      </c>
+      <c r="E57" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="63" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="63">
-        <v>0.75</v>
-      </c>
-      <c r="C6" s="63">
-        <v>0.13</v>
-      </c>
-      <c r="D6" s="63">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="58" t="s">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="67">
+        <v>1000</v>
+      </c>
+      <c r="C58" s="61">
+        <v>526.79999999999995</v>
+      </c>
+      <c r="D58" s="61">
+        <v>5574.42</v>
+      </c>
+      <c r="E58" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="63" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="63">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="63">
-        <v>18.98</v>
-      </c>
-      <c r="D7" s="63">
-        <v>115.09</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="58" t="s">
+      <c r="B59" s="67">
+        <v>1600</v>
+      </c>
+      <c r="C59" s="61">
+        <v>409.21</v>
+      </c>
+      <c r="D59" s="61">
+        <v>1193.93</v>
+      </c>
+      <c r="E59" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F59" s="63" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="63">
-        <v>175</v>
-      </c>
-      <c r="C8" s="63">
-        <v>50.24</v>
-      </c>
-      <c r="D8" s="63">
-        <v>336.87</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="58" t="s">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="67">
+        <v>1470</v>
+      </c>
+      <c r="C60" s="61">
+        <v>1005.4</v>
+      </c>
+      <c r="D60" s="61">
+        <v>10425.73</v>
+      </c>
+      <c r="E60" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="63" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="62" t="s">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="67">
+        <v>420</v>
+      </c>
+      <c r="C61" s="61">
+        <v>307.37</v>
+      </c>
+      <c r="D61" s="61">
+        <v>3266.2</v>
+      </c>
+      <c r="E61" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="67">
+        <v>500</v>
+      </c>
+      <c r="C62" s="61">
+        <v>120.64</v>
+      </c>
+      <c r="D62" s="61">
+        <v>1939.15</v>
+      </c>
+      <c r="E62" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="61">
+        <v>440</v>
+      </c>
+      <c r="C63" s="61">
+        <v>167.08</v>
+      </c>
+      <c r="D63" s="61">
+        <v>4010.6</v>
+      </c>
+      <c r="E63" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="61">
+        <v>880</v>
+      </c>
+      <c r="C64" s="61">
+        <v>665.53</v>
+      </c>
+      <c r="D64" s="61">
+        <v>8617.91</v>
+      </c>
+      <c r="E64" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" s="63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="61">
+        <v>2000</v>
+      </c>
+      <c r="C65" s="61">
+        <v>632.22</v>
+      </c>
+      <c r="D65" s="61">
+        <v>10009.5</v>
+      </c>
+      <c r="E65" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="61">
         <v>10</v>
       </c>
-      <c r="B9" s="63">
-        <v>180</v>
-      </c>
-      <c r="C9" s="63">
-        <v>22.58</v>
-      </c>
-      <c r="D9" s="63">
-        <v>172.26</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="58" t="s">
+      <c r="C66" s="61">
+        <v>0</v>
+      </c>
+      <c r="D66" s="61">
+        <v>0</v>
+      </c>
+      <c r="E66" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="63" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="63">
-        <v>100</v>
-      </c>
-      <c r="C10" s="63">
-        <v>3.39</v>
-      </c>
-      <c r="D10" s="63">
-        <v>72.48</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="63">
-        <v>40</v>
-      </c>
-      <c r="C11" s="63">
-        <v>7.55</v>
-      </c>
-      <c r="D11" s="63">
-        <v>39.25</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="63">
-        <v>35</v>
-      </c>
-      <c r="C12" s="63">
-        <v>4.99</v>
-      </c>
-      <c r="D12" s="63">
-        <v>66.75</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="63">
-        <v>400</v>
-      </c>
-      <c r="C13" s="63">
-        <v>48.73</v>
-      </c>
-      <c r="D13" s="63">
-        <v>341.26</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="63">
-        <v>60</v>
-      </c>
-      <c r="C14" s="63">
-        <v>0</v>
-      </c>
-      <c r="D14" s="63">
-        <v>93.72</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="63">
-        <v>2</v>
-      </c>
-      <c r="C15" s="63">
-        <v>0.02</v>
-      </c>
-      <c r="D15" s="63">
-        <v>0.42</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
-      <c r="A16" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="63">
-        <v>50</v>
-      </c>
-      <c r="C16" s="63">
-        <v>1.46</v>
-      </c>
-      <c r="D16" s="63">
-        <v>51.01</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="63">
-        <v>200</v>
-      </c>
-      <c r="C17" s="63">
-        <v>0</v>
-      </c>
-      <c r="D17" s="63">
-        <v>142.35</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="63">
-        <v>120</v>
-      </c>
-      <c r="C18" s="63">
-        <v>1.7</v>
-      </c>
-      <c r="D18" s="63">
-        <v>113.22</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="63">
-        <v>8</v>
-      </c>
-      <c r="C19" s="63">
-        <v>0</v>
-      </c>
-      <c r="D19" s="63">
-        <v>12.18</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="A20" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="63">
-        <v>140</v>
-      </c>
-      <c r="C20" s="63">
-        <v>0</v>
-      </c>
-      <c r="D20" s="63">
-        <v>248.72</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
-      <c r="A21" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="63">
-        <v>6</v>
-      </c>
-      <c r="C21" s="63">
-        <v>0</v>
-      </c>
-      <c r="D21" s="63">
-        <v>5.62</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="63">
-        <v>32</v>
-      </c>
-      <c r="C22" s="63">
-        <v>6.71</v>
-      </c>
-      <c r="D22" s="63">
-        <v>87.02</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1">
-      <c r="A23" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="63">
-        <v>20</v>
-      </c>
-      <c r="C23" s="63">
-        <v>0</v>
-      </c>
-      <c r="D23" s="63">
-        <v>19.54</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
-      <c r="A24" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="63">
-        <v>30</v>
-      </c>
-      <c r="C24" s="63">
-        <v>0</v>
-      </c>
-      <c r="D24" s="63">
-        <v>95.54</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="A25" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="63">
-        <v>95</v>
-      </c>
-      <c r="C25" s="63">
-        <v>0</v>
-      </c>
-      <c r="D25" s="63">
-        <v>152.26</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
-      <c r="A26" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="63">
-        <v>100</v>
-      </c>
-      <c r="C26" s="63">
-        <v>0.16</v>
-      </c>
-      <c r="D26" s="63">
-        <v>109.96</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
-      <c r="A27" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="63">
-        <v>8</v>
-      </c>
-      <c r="C27" s="63">
-        <v>0</v>
-      </c>
-      <c r="D27" s="63">
-        <v>3.71</v>
-      </c>
-      <c r="E27" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
-      <c r="A28" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="63">
-        <v>7.5</v>
-      </c>
-      <c r="C28" s="63">
-        <v>3.12</v>
-      </c>
-      <c r="D28" s="63">
-        <v>10.23</v>
-      </c>
-      <c r="E28" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
-      <c r="A29" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="63">
-        <v>30</v>
-      </c>
-      <c r="C29" s="63">
-        <v>3.12</v>
-      </c>
-      <c r="D29" s="63">
-        <v>10.19</v>
-      </c>
-      <c r="E29" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="63">
-        <v>15.7</v>
-      </c>
-      <c r="C30" s="63">
-        <v>0.13</v>
-      </c>
-      <c r="D30" s="63">
-        <v>21.74</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
-      <c r="A31" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="63">
-        <v>60</v>
-      </c>
-      <c r="C31" s="63">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D31" s="63">
-        <v>58.31</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="A32" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="63">
-        <v>450</v>
-      </c>
-      <c r="C32" s="63">
-        <v>0</v>
-      </c>
-      <c r="D32" s="63">
-        <v>0</v>
-      </c>
-      <c r="E32" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="63">
-        <v>1050</v>
-      </c>
-      <c r="C33" s="63">
-        <v>657.04</v>
-      </c>
-      <c r="D33" s="63">
-        <v>5427.55</v>
-      </c>
-      <c r="E33" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
-      <c r="A34" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="63">
-        <v>1440</v>
-      </c>
-      <c r="C34" s="63">
-        <v>874.2</v>
-      </c>
-      <c r="D34" s="63">
-        <v>7873</v>
-      </c>
-      <c r="E34" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
-      <c r="A35" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="63">
-        <v>1830</v>
-      </c>
-      <c r="C35" s="63">
-        <v>1188.93</v>
-      </c>
-      <c r="D35" s="63">
-        <v>10146.030000000001</v>
-      </c>
-      <c r="E35" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
-      <c r="A36" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="63">
-        <v>120</v>
-      </c>
-      <c r="C36" s="63">
-        <v>0</v>
-      </c>
-      <c r="D36" s="63">
-        <v>6.11</v>
-      </c>
-      <c r="E36" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
-      <c r="A37" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="63">
-        <v>107.88</v>
-      </c>
-      <c r="C37" s="63">
-        <v>23.78</v>
-      </c>
-      <c r="D37" s="63">
-        <v>305.08999999999997</v>
-      </c>
-      <c r="E37" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
-      <c r="A38" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="63">
-        <v>95</v>
-      </c>
-      <c r="C38" s="63">
-        <v>54.17</v>
-      </c>
-      <c r="D38" s="63">
-        <v>688.9</v>
-      </c>
-      <c r="E38" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
-      <c r="A39" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="63">
-        <v>92</v>
-      </c>
-      <c r="C39" s="63">
-        <v>54.56</v>
-      </c>
-      <c r="D39" s="63">
-        <v>602.86</v>
-      </c>
-      <c r="E39" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
-      <c r="A40" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="63">
-        <v>101</v>
-      </c>
-      <c r="C40" s="63">
-        <v>34.119999999999997</v>
-      </c>
-      <c r="D40" s="63">
-        <v>362.21</v>
-      </c>
-      <c r="E40" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
-      <c r="A41" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="63">
-        <v>17.47</v>
-      </c>
-      <c r="C41" s="63">
-        <v>0</v>
-      </c>
-      <c r="D41" s="63">
-        <v>0</v>
-      </c>
-      <c r="E41" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
-      <c r="A42" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="64">
-        <v>600</v>
-      </c>
-      <c r="C42" s="63">
-        <v>305.44</v>
-      </c>
-      <c r="D42" s="63">
-        <v>3531.01</v>
-      </c>
-      <c r="E42" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1">
-      <c r="A43" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="63">
-        <v>250</v>
-      </c>
-      <c r="C43" s="63">
-        <v>130.04</v>
-      </c>
-      <c r="D43" s="65">
-        <v>903.19</v>
-      </c>
-      <c r="E43" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1">
-      <c r="A44" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="63">
-        <v>196</v>
-      </c>
-      <c r="C44" s="63">
-        <v>0</v>
-      </c>
-      <c r="D44" s="63">
-        <v>0</v>
-      </c>
-      <c r="E44" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="F44" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1">
-      <c r="A45" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="63">
-        <v>105.66</v>
-      </c>
-      <c r="C45" s="63">
-        <v>0</v>
-      </c>
-      <c r="D45" s="63">
-        <v>0</v>
-      </c>
-      <c r="E45" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="F45" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1">
-      <c r="A46" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="63">
-        <v>106</v>
-      </c>
-      <c r="C46" s="63">
-        <v>0</v>
-      </c>
-      <c r="D46" s="63">
-        <v>0</v>
-      </c>
-      <c r="E46" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1">
-      <c r="A47" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="63">
-        <v>330.5</v>
-      </c>
-      <c r="C47" s="63">
-        <v>0</v>
-      </c>
-      <c r="D47" s="63">
-        <v>0</v>
-      </c>
-      <c r="E47" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="F47" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1">
-      <c r="A48" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="63">
-        <v>113.2</v>
-      </c>
-      <c r="C48" s="63">
-        <v>41.96</v>
-      </c>
-      <c r="D48" s="63">
-        <v>474.19</v>
-      </c>
-      <c r="E48" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="F48" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1">
-      <c r="A49" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="63">
-        <v>52.8</v>
-      </c>
-      <c r="C49" s="63">
-        <v>30.57</v>
-      </c>
-      <c r="D49" s="63">
-        <v>371.39</v>
-      </c>
-      <c r="E49" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="F49" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="64">
-        <v>7895.49</v>
-      </c>
-      <c r="C50" s="63">
-        <v>332.24</v>
-      </c>
-      <c r="D50" s="63">
-        <v>9307.48</v>
-      </c>
-      <c r="E50" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="F50" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1">
-      <c r="A51" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="63">
-        <v>1950</v>
-      </c>
-      <c r="C51" s="63">
-        <v>295.44</v>
-      </c>
-      <c r="D51" s="63">
-        <v>2714.63</v>
-      </c>
-      <c r="E51" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1">
-      <c r="A52" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="63">
-        <v>673.4</v>
-      </c>
-      <c r="C52" s="66">
-        <v>799.61</v>
-      </c>
-      <c r="D52" s="67">
-        <v>6159.76</v>
-      </c>
-      <c r="E52" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="F52" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1">
-      <c r="A53" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="63">
-        <v>234.5</v>
-      </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1">
-      <c r="A54" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="68">
-        <v>2600</v>
-      </c>
-      <c r="C54" s="63">
-        <v>1779.03</v>
-      </c>
-      <c r="D54" s="63">
-        <v>19580.29</v>
-      </c>
-      <c r="E54" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1">
-      <c r="A55" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="68">
-        <v>2000</v>
-      </c>
-      <c r="C55" s="63">
-        <v>1476.83</v>
-      </c>
-      <c r="D55" s="63">
-        <v>15444.79</v>
-      </c>
-      <c r="E55" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1">
-      <c r="A56" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="68">
-        <v>1000</v>
-      </c>
-      <c r="C56" s="63">
-        <v>574.67999999999995</v>
-      </c>
-      <c r="D56" s="63">
-        <v>5815.55</v>
-      </c>
-      <c r="E56" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1">
-      <c r="A57" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="68">
-        <v>1500</v>
-      </c>
-      <c r="C57" s="63">
-        <v>701.69</v>
-      </c>
-      <c r="D57" s="63">
-        <v>7862.1</v>
-      </c>
-      <c r="E57" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1">
-      <c r="A58" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="68">
-        <v>1000</v>
-      </c>
-      <c r="C58" s="63">
-        <v>526.79999999999995</v>
-      </c>
-      <c r="D58" s="63">
-        <v>5574.42</v>
-      </c>
-      <c r="E58" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="F58" s="58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1">
-      <c r="A59" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="68">
-        <v>1600</v>
-      </c>
-      <c r="C59" s="63">
-        <v>409.21</v>
-      </c>
-      <c r="D59" s="63">
-        <v>1193.93</v>
-      </c>
-      <c r="E59" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" s="58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1">
-      <c r="A60" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="68">
-        <v>1470</v>
-      </c>
-      <c r="C60" s="63">
-        <v>1005.4</v>
-      </c>
-      <c r="D60" s="63">
-        <v>10425.73</v>
-      </c>
-      <c r="E60" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="F60" s="58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1">
-      <c r="A61" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="68">
-        <v>420</v>
-      </c>
-      <c r="C61" s="63">
-        <v>307.37</v>
-      </c>
-      <c r="D61" s="63">
-        <v>3266.2</v>
-      </c>
-      <c r="E61" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="F61" s="58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1">
-      <c r="A62" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="68">
-        <v>500</v>
-      </c>
-      <c r="C62" s="63">
-        <v>120.64</v>
-      </c>
-      <c r="D62" s="63">
-        <v>1939.15</v>
-      </c>
-      <c r="E62" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="F62" s="58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1">
-      <c r="A63" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="63">
-        <v>440</v>
-      </c>
-      <c r="C63" s="63">
-        <v>167.08</v>
-      </c>
-      <c r="D63" s="63">
-        <v>4010.6</v>
-      </c>
-      <c r="E63" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="F63" s="58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1">
-      <c r="A64" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="63">
-        <v>880</v>
-      </c>
-      <c r="C64" s="63">
-        <v>665.53</v>
-      </c>
-      <c r="D64" s="63">
-        <v>8617.91</v>
-      </c>
-      <c r="E64" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="F64" s="58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1">
-      <c r="A65" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="63">
-        <v>2000</v>
-      </c>
-      <c r="C65" s="63">
-        <v>632.22</v>
-      </c>
-      <c r="D65" s="63">
-        <v>10009.5</v>
-      </c>
-      <c r="E65" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" s="58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1">
-      <c r="A66" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="63">
-        <v>10</v>
-      </c>
-      <c r="C66" s="63">
-        <v>0</v>
-      </c>
-      <c r="D66" s="63">
-        <v>0</v>
-      </c>
-      <c r="E66" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="F66" s="58" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3182,7 +3193,7 @@
       <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -3193,7 +3204,7 @@
     <col min="7" max="7" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12" customHeight="1">
+    <row r="1" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18">
         <v>1</v>
       </c>
@@ -3213,7 +3224,7 @@
         <v>9307.48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>2</v>
       </c>
@@ -3233,7 +3244,7 @@
         <v>2714.63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1">
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>3</v>
       </c>
@@ -3246,14 +3257,14 @@
       <c r="D3" s="21">
         <v>673.4</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="44">
         <v>799.61</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="46">
         <v>6159.76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1">
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>4</v>
       </c>
@@ -3266,30 +3277,30 @@
       <c r="D4" s="21">
         <v>234.5</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="48"/>
-    </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1">
+      <c r="E4" s="45"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="48">
         <v>10753.39</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <v>12507.55</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="24">
         <v>1935.3</v>
       </c>
@@ -3297,15 +3308,15 @@
         <v>23461.66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="50">
         <v>20032.8</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="24">
         <v>5048.75</v>
       </c>
@@ -3333,7 +3344,7 @@
       <selection activeCell="A19" sqref="A19:F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -3343,7 +3354,7 @@
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -3353,7 +3364,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>76</v>
       </c>
@@ -3369,7 +3380,7 @@
       </c>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="26.25" customHeight="1">
+    <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="36"/>
@@ -3381,7 +3392,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>82</v>
       </c>
@@ -3391,7 +3402,7 @@
       <c r="E4" s="15"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38">
         <v>1</v>
       </c>
@@ -3411,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="23" t="s">
         <v>85</v>
@@ -3427,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="23" t="s">
         <v>86</v>
@@ -3443,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -3453,7 +3464,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>82</v>
       </c>
@@ -3463,7 +3474,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>1</v>
       </c>
@@ -3483,7 +3494,7 @@
         <v>642.29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1">
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>2</v>
       </c>
@@ -3503,7 +3514,7 @@
         <v>44.73</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1">
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>3</v>
       </c>
@@ -3523,7 +3534,7 @@
         <v>552.04</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1">
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>4</v>
       </c>
@@ -3543,7 +3554,7 @@
         <v>2564.19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1">
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>5</v>
       </c>
@@ -3563,7 +3574,7 @@
         <v>5368.28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1">
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>6</v>
       </c>
@@ -3583,7 +3594,7 @@
         <v>3472.96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1">
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>7</v>
       </c>
@@ -3603,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1">
+    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="23" t="s">
         <v>85</v>
@@ -3619,7 +3630,7 @@
         <v>12644.49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1">
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="23" t="s">
         <v>100</v>
@@ -3635,7 +3646,7 @@
         <v>12644.49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" customHeight="1">
+    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>101</v>
       </c>
@@ -3645,7 +3656,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="12" customHeight="1">
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>76</v>
       </c>
@@ -3661,7 +3672,7 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" ht="24" customHeight="1">
+    <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="8"/>
@@ -3673,7 +3684,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.5" customHeight="1">
+    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>102</v>
       </c>
@@ -3683,7 +3694,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" customHeight="1">
+    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>103</v>
       </c>
@@ -3693,7 +3704,7 @@
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" ht="12" customHeight="1">
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>1</v>
       </c>
@@ -3713,7 +3724,7 @@
         <v>19580.29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12" customHeight="1">
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>2</v>
       </c>
@@ -3733,7 +3744,7 @@
         <v>15444.79</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12" customHeight="1">
+    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>3</v>
       </c>
@@ -3753,7 +3764,7 @@
         <v>5815.55</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12" customHeight="1">
+    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <v>4</v>
       </c>
@@ -3773,7 +3784,7 @@
         <v>7862.1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12" customHeight="1">
+    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <v>5</v>
       </c>
@@ -3793,7 +3804,7 @@
         <v>5574.42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12" customHeight="1">
+    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <v>6</v>
       </c>
@@ -3813,7 +3824,7 @@
         <v>1193.93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.5" customHeight="1">
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>116</v>
       </c>
@@ -3823,7 +3834,7 @@
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" ht="12" customHeight="1">
+    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>7</v>
       </c>
@@ -3843,7 +3854,7 @@
         <v>10425.73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12" customHeight="1">
+    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <v>8</v>
       </c>
@@ -3863,7 +3874,7 @@
         <v>3266.2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12" customHeight="1">
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <v>9</v>
       </c>
@@ -3883,7 +3894,7 @@
         <v>1939.15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12" customHeight="1">
+    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="23" t="s">
         <v>85</v>
@@ -3899,7 +3910,7 @@
         <v>71102.17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1">
+    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>123</v>
       </c>
@@ -3909,7 +3920,7 @@
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" ht="12" customHeight="1">
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <v>10</v>
       </c>
@@ -3929,7 +3940,7 @@
         <v>4010.6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12" customHeight="1">
+    <row r="37" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <v>11</v>
       </c>
@@ -3949,7 +3960,7 @@
         <v>8617.91</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12" customHeight="1">
+    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <v>12</v>
       </c>
@@ -3969,7 +3980,7 @@
         <v>10009.5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12" customHeight="1">
+    <row r="39" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="23" t="s">
         <v>85</v>
@@ -3985,15 +3996,15 @@
         <v>22638.01</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="9.75" customHeight="1">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="55"/>
-    </row>
-    <row r="41" spans="1:6" ht="12" customHeight="1">
+    <row r="40" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="54"/>
+    </row>
+    <row r="41" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <v>13</v>
       </c>
@@ -4013,15 +4024,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12" customHeight="1">
+    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="50">
         <v>10</v>
       </c>
-      <c r="D42" s="52"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="24">
         <v>0</v>
       </c>
@@ -4029,15 +4040,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12" customHeight="1">
+    <row r="43" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="49">
+      <c r="C43" s="48">
         <v>15420</v>
       </c>
-      <c r="D43" s="50"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="24">
         <v>8366.48</v>
       </c>
@@ -4045,15 +4056,15 @@
         <v>93740.18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.35" customHeight="1">
+    <row r="44" spans="1:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="50">
         <v>95198.15</v>
       </c>
-      <c r="D44" s="52"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="43">
         <v>27637.77</v>
       </c>

--- a/Task_3/processed/excels/Mar 2018-18-20.xlsx
+++ b/Task_3/processed/excels/Mar 2018-18-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRI\Task_3\processed\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB9CC3F-9776-4981-AC31-C003A194884D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6A36B4-7C56-42B6-913B-46C728AC9138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1402,6 +1402,45 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
@@ -1434,45 +1473,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1814,1364 +1814,1364 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" style="59" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="26" style="59" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" style="59" customWidth="1"/>
-    <col min="7" max="16384" width="9.33203125" style="59"/>
+    <col min="1" max="1" width="38" style="48" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="26" style="48" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="48" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="47" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="50">
         <v>58.95</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="50">
         <v>0</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="50">
         <v>0.97</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="50">
         <v>2</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="50">
         <v>0.88</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="50">
         <v>3.4</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="50">
         <v>150</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="50">
         <v>39.19</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="50">
         <v>233.06</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="50">
         <v>36</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="50">
         <v>13.27</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="50">
         <v>79.709999999999994</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="50">
         <v>0.75</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="50">
         <v>0.13</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="50">
         <v>0.64</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="50">
         <v>60</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="50">
         <v>18.98</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="50">
         <v>115.09</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="50">
         <v>175</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="50">
         <v>50.24</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="50">
         <v>336.87</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="50">
         <v>180</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="50">
         <v>22.58</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="50">
         <v>172.26</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="50">
         <v>100</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="50">
         <v>3.39</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="50">
         <v>72.48</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="50">
         <v>40</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="50">
         <v>7.55</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="50">
         <v>39.25</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="50">
         <v>35</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="50">
         <v>4.99</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="50">
         <v>66.75</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="50">
         <v>400</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="50">
         <v>48.73</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="50">
         <v>341.26</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="50">
         <v>60</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="50">
         <v>0</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="50">
         <v>93.72</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="50">
         <v>2</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="50">
         <v>0.02</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="50">
         <v>0.42</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="50">
         <v>50</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="50">
         <v>1.46</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="50">
         <v>51.01</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="50">
         <v>200</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="50">
         <v>0</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="50">
         <v>142.35</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="50">
         <v>120</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="50">
         <v>1.7</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="50">
         <v>113.22</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="63" t="s">
+      <c r="F18" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="50">
         <v>8</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="50">
         <v>0</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="50">
         <v>12.18</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="50">
         <v>140</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="50">
         <v>0</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="50">
         <v>248.72</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="50">
         <v>6</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="50">
         <v>0</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="50">
         <v>5.62</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="50">
         <v>32</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="50">
         <v>6.71</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="50">
         <v>87.02</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="50">
         <v>20</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="50">
         <v>0</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="50">
         <v>19.54</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="50">
         <v>30</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="50">
         <v>0</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="50">
         <v>95.54</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="61">
+      <c r="B25" s="50">
         <v>95</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="50">
         <v>0</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="50">
         <v>152.26</v>
       </c>
-      <c r="E25" s="62" t="s">
+      <c r="E25" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="61">
+      <c r="B26" s="50">
         <v>100</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="50">
         <v>0.16</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="50">
         <v>109.96</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="63" t="s">
+      <c r="F26" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="61">
+      <c r="B27" s="50">
         <v>8</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="50">
         <v>0</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="50">
         <v>3.71</v>
       </c>
-      <c r="E27" s="62" t="s">
+      <c r="E27" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="61">
+      <c r="B28" s="50">
         <v>7.5</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="50">
         <v>3.12</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="50">
         <v>10.23</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="61">
+      <c r="B29" s="50">
         <v>30</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="50">
         <v>3.12</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="50">
         <v>10.19</v>
       </c>
-      <c r="E29" s="62" t="s">
+      <c r="E29" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="61">
+      <c r="B30" s="50">
         <v>15.7</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="50">
         <v>0.13</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="50">
         <v>21.74</v>
       </c>
-      <c r="E30" s="62" t="s">
+      <c r="E30" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="61">
+      <c r="B31" s="50">
         <v>60</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="50">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="50">
         <v>58.31</v>
       </c>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="61">
+      <c r="B32" s="50">
         <v>450</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="50">
         <v>0</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="50">
         <v>0</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="63" t="s">
+      <c r="F32" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="61">
+      <c r="B33" s="50">
         <v>1050</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C33" s="50">
         <v>657.04</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="50">
         <v>5427.55</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="61">
+      <c r="B34" s="50">
         <v>1440</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="50">
         <v>874.2</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="50">
         <v>7873</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="63" t="s">
+      <c r="F34" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="61">
+      <c r="B35" s="50">
         <v>1830</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="50">
         <v>1188.93</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="50">
         <v>10146.030000000001</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="F35" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="61">
+      <c r="B36" s="50">
         <v>120</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="50">
         <v>0</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="50">
         <v>6.11</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="61">
+      <c r="B37" s="50">
         <v>107.88</v>
       </c>
-      <c r="C37" s="61">
+      <c r="C37" s="50">
         <v>23.78</v>
       </c>
-      <c r="D37" s="61">
+      <c r="D37" s="50">
         <v>305.08999999999997</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="61">
+      <c r="B38" s="50">
         <v>95</v>
       </c>
-      <c r="C38" s="61">
+      <c r="C38" s="50">
         <v>54.17</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="50">
         <v>688.9</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="63" t="s">
+      <c r="F38" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="61">
+      <c r="B39" s="50">
         <v>92</v>
       </c>
-      <c r="C39" s="61">
+      <c r="C39" s="50">
         <v>54.56</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="50">
         <v>602.86</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="63" t="s">
+      <c r="F39" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="61">
+      <c r="B40" s="50">
         <v>101</v>
       </c>
-      <c r="C40" s="61">
+      <c r="C40" s="50">
         <v>34.119999999999997</v>
       </c>
-      <c r="D40" s="61">
+      <c r="D40" s="50">
         <v>362.21</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="63" t="s">
+      <c r="F40" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="I40" s="64" t="s">
+      <c r="I40" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="61">
+      <c r="B41" s="50">
         <v>17.47</v>
       </c>
-      <c r="C41" s="61">
+      <c r="C41" s="50">
         <v>0</v>
       </c>
-      <c r="D41" s="61">
+      <c r="D41" s="50">
         <v>0</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="I41" s="64" t="s">
+      <c r="I41" s="53" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="61">
+      <c r="B42" s="50">
         <v>600</v>
       </c>
-      <c r="C42" s="61">
+      <c r="C42" s="50">
         <v>305.44</v>
       </c>
-      <c r="D42" s="61">
+      <c r="D42" s="50">
         <v>3531.01</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="64" t="s">
+      <c r="F42" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="I42" s="64" t="s">
+      <c r="I42" s="53" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="61">
+      <c r="B43" s="50">
         <v>250</v>
       </c>
-      <c r="C43" s="61">
+      <c r="C43" s="50">
         <v>130.04</v>
       </c>
-      <c r="D43" s="61">
+      <c r="D43" s="50">
         <v>903.19</v>
       </c>
-      <c r="E43" s="64" t="s">
+      <c r="E43" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F43" s="64" t="s">
+      <c r="F43" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="I43" s="64" t="s">
+      <c r="I43" s="53" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="61">
+      <c r="B44" s="50">
         <v>196</v>
       </c>
-      <c r="C44" s="61">
+      <c r="C44" s="50">
         <v>0</v>
       </c>
-      <c r="D44" s="61">
+      <c r="D44" s="50">
         <v>0</v>
       </c>
-      <c r="E44" s="64" t="s">
+      <c r="E44" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="F44" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="I44" s="64" t="s">
+      <c r="I44" s="53" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="61">
+      <c r="B45" s="50">
         <v>105.66</v>
       </c>
-      <c r="C45" s="61">
+      <c r="C45" s="50">
         <v>0</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="50">
         <v>0</v>
       </c>
-      <c r="E45" s="64" t="s">
+      <c r="E45" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="64" t="s">
+      <c r="F45" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="I45" s="63" t="s">
+      <c r="I45" s="52" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="61">
+      <c r="B46" s="50">
         <v>106</v>
       </c>
-      <c r="C46" s="61">
+      <c r="C46" s="50">
         <v>0</v>
       </c>
-      <c r="D46" s="61">
+      <c r="D46" s="50">
         <v>0</v>
       </c>
-      <c r="E46" s="64" t="s">
+      <c r="E46" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="F46" s="64" t="s">
+      <c r="F46" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="I46" s="63" t="s">
+      <c r="I46" s="52" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="60" t="s">
+      <c r="A47" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="61">
+      <c r="B47" s="50">
         <v>330.5</v>
       </c>
-      <c r="C47" s="61">
+      <c r="C47" s="50">
         <v>0</v>
       </c>
-      <c r="D47" s="61">
+      <c r="D47" s="50">
         <v>0</v>
       </c>
-      <c r="E47" s="64" t="s">
+      <c r="E47" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="64" t="s">
+      <c r="F47" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="I47" s="63" t="s">
+      <c r="I47" s="52" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="61">
+      <c r="B48" s="50">
         <v>113.2</v>
       </c>
-      <c r="C48" s="61">
+      <c r="C48" s="50">
         <v>41.96</v>
       </c>
-      <c r="D48" s="61">
+      <c r="D48" s="50">
         <v>474.19</v>
       </c>
-      <c r="E48" s="64" t="s">
+      <c r="E48" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="64" t="s">
+      <c r="F48" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="I48" s="63" t="s">
+      <c r="I48" s="52" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="60" t="s">
+      <c r="A49" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="61">
+      <c r="B49" s="50">
         <v>52.8</v>
       </c>
-      <c r="C49" s="61">
+      <c r="C49" s="50">
         <v>30.57</v>
       </c>
-      <c r="D49" s="61">
+      <c r="D49" s="50">
         <v>371.39</v>
       </c>
-      <c r="E49" s="64" t="s">
+      <c r="E49" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F49" s="64" t="s">
+      <c r="F49" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="I49" s="63" t="s">
+      <c r="I49" s="52" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="61">
+      <c r="B50" s="50">
         <v>7895.49</v>
       </c>
-      <c r="C50" s="61">
+      <c r="C50" s="50">
         <v>332.24</v>
       </c>
-      <c r="D50" s="61">
+      <c r="D50" s="50">
         <v>9307.48</v>
       </c>
-      <c r="E50" s="63" t="s">
+      <c r="E50" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="64" t="s">
+      <c r="F50" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="61">
+      <c r="B51" s="50">
         <v>1950</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="50">
         <v>295.44</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="50">
         <v>2714.63</v>
       </c>
-      <c r="E51" s="63" t="s">
+      <c r="E51" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="64" t="s">
+      <c r="F51" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="61">
+      <c r="B52" s="50">
         <v>673.4</v>
       </c>
-      <c r="C52" s="65">
+      <c r="C52" s="55">
         <v>799.61</v>
       </c>
-      <c r="D52" s="66">
+      <c r="D52" s="56">
         <v>6159.76</v>
       </c>
-      <c r="E52" s="63" t="s">
+      <c r="E52" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="F52" s="64" t="s">
+      <c r="F52" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="61">
+      <c r="B53" s="50">
         <v>234.5</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="63" t="s">
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F53" s="64" t="s">
+      <c r="F53" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="67">
+      <c r="B54" s="54">
         <v>2600</v>
       </c>
-      <c r="C54" s="61">
+      <c r="C54" s="50">
         <v>1779.03</v>
       </c>
-      <c r="D54" s="61">
+      <c r="D54" s="50">
         <v>19580.29</v>
       </c>
-      <c r="E54" s="64" t="s">
+      <c r="E54" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F54" s="63" t="s">
+      <c r="F54" s="52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="67">
+      <c r="B55" s="54">
         <v>2000</v>
       </c>
-      <c r="C55" s="61">
+      <c r="C55" s="50">
         <v>1476.83</v>
       </c>
-      <c r="D55" s="61">
+      <c r="D55" s="50">
         <v>15444.79</v>
       </c>
-      <c r="E55" s="64" t="s">
+      <c r="E55" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F55" s="63" t="s">
+      <c r="F55" s="52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="67">
+      <c r="B56" s="54">
         <v>1000</v>
       </c>
-      <c r="C56" s="61">
+      <c r="C56" s="50">
         <v>574.67999999999995</v>
       </c>
-      <c r="D56" s="61">
+      <c r="D56" s="50">
         <v>5815.55</v>
       </c>
-      <c r="E56" s="64" t="s">
+      <c r="E56" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F56" s="63" t="s">
+      <c r="F56" s="52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="67">
+      <c r="B57" s="54">
         <v>1500</v>
       </c>
-      <c r="C57" s="61">
+      <c r="C57" s="50">
         <v>701.69</v>
       </c>
-      <c r="D57" s="61">
+      <c r="D57" s="50">
         <v>7862.1</v>
       </c>
-      <c r="E57" s="64" t="s">
+      <c r="E57" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F57" s="63" t="s">
+      <c r="F57" s="52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="67">
+      <c r="B58" s="54">
         <v>1000</v>
       </c>
-      <c r="C58" s="61">
+      <c r="C58" s="50">
         <v>526.79999999999995</v>
       </c>
-      <c r="D58" s="61">
+      <c r="D58" s="50">
         <v>5574.42</v>
       </c>
-      <c r="E58" s="64" t="s">
+      <c r="E58" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F58" s="63" t="s">
+      <c r="F58" s="52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="60" t="s">
+      <c r="A59" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="67">
+      <c r="B59" s="54">
         <v>1600</v>
       </c>
-      <c r="C59" s="61">
+      <c r="C59" s="50">
         <v>409.21</v>
       </c>
-      <c r="D59" s="61">
+      <c r="D59" s="50">
         <v>1193.93</v>
       </c>
-      <c r="E59" s="64" t="s">
+      <c r="E59" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F59" s="63" t="s">
+      <c r="F59" s="52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="60" t="s">
+      <c r="A60" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="67">
+      <c r="B60" s="54">
         <v>1470</v>
       </c>
-      <c r="C60" s="61">
+      <c r="C60" s="50">
         <v>1005.4</v>
       </c>
-      <c r="D60" s="61">
+      <c r="D60" s="50">
         <v>10425.73</v>
       </c>
-      <c r="E60" s="64" t="s">
+      <c r="E60" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F60" s="63" t="s">
+      <c r="F60" s="52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="60" t="s">
+      <c r="A61" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="67">
+      <c r="B61" s="54">
         <v>420</v>
       </c>
-      <c r="C61" s="61">
+      <c r="C61" s="50">
         <v>307.37</v>
       </c>
-      <c r="D61" s="61">
+      <c r="D61" s="50">
         <v>3266.2</v>
       </c>
-      <c r="E61" s="64" t="s">
+      <c r="E61" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F61" s="63" t="s">
+      <c r="F61" s="52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="67">
+      <c r="B62" s="54">
         <v>500</v>
       </c>
-      <c r="C62" s="61">
+      <c r="C62" s="50">
         <v>120.64</v>
       </c>
-      <c r="D62" s="61">
+      <c r="D62" s="50">
         <v>1939.15</v>
       </c>
-      <c r="E62" s="64" t="s">
+      <c r="E62" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="63" t="s">
+      <c r="F62" s="52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="60" t="s">
+      <c r="A63" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="61">
+      <c r="B63" s="50">
         <v>440</v>
       </c>
-      <c r="C63" s="61">
+      <c r="C63" s="50">
         <v>167.08</v>
       </c>
-      <c r="D63" s="61">
+      <c r="D63" s="50">
         <v>4010.6</v>
       </c>
-      <c r="E63" s="63" t="s">
+      <c r="E63" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="F63" s="63" t="s">
+      <c r="F63" s="52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="61">
+      <c r="B64" s="50">
         <v>880</v>
       </c>
-      <c r="C64" s="61">
+      <c r="C64" s="50">
         <v>665.53</v>
       </c>
-      <c r="D64" s="61">
+      <c r="D64" s="50">
         <v>8617.91</v>
       </c>
-      <c r="E64" s="63" t="s">
+      <c r="E64" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="F64" s="63" t="s">
+      <c r="F64" s="52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="60" t="s">
+      <c r="A65" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="61">
+      <c r="B65" s="50">
         <v>2000</v>
       </c>
-      <c r="C65" s="61">
+      <c r="C65" s="50">
         <v>632.22</v>
       </c>
-      <c r="D65" s="61">
+      <c r="D65" s="50">
         <v>10009.5</v>
       </c>
-      <c r="E65" s="63" t="s">
+      <c r="E65" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="F65" s="63" t="s">
+      <c r="F65" s="52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="60" t="s">
+      <c r="A66" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="61">
+      <c r="B66" s="50">
         <v>10</v>
       </c>
-      <c r="C66" s="61">
+      <c r="C66" s="50">
         <v>0</v>
       </c>
-      <c r="D66" s="61">
+      <c r="D66" s="50">
         <v>0</v>
       </c>
-      <c r="E66" s="63" t="s">
+      <c r="E66" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F66" s="63" t="s">
+      <c r="F66" s="52" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3257,10 +3257,10 @@
       <c r="D3" s="21">
         <v>673.4</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="57">
         <v>799.61</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="59">
         <v>6159.76</v>
       </c>
     </row>
@@ -3277,18 +3277,18 @@
       <c r="D4" s="21">
         <v>234.5</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="47"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="60"/>
     </row>
     <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="61">
         <v>10753.39</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
@@ -3297,10 +3297,10 @@
       <c r="B6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="61">
         <v>12507.55</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="24">
         <v>1935.3</v>
       </c>
@@ -3313,10 +3313,10 @@
       <c r="B7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="63">
         <v>20032.8</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="24">
         <v>5048.75</v>
       </c>
@@ -3997,12 +3997,12 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="54"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67"/>
     </row>
     <row r="41" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
@@ -4029,10 +4029,10 @@
       <c r="B42" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="63">
         <v>10</v>
       </c>
-      <c r="D42" s="51"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="24">
         <v>0</v>
       </c>
@@ -4045,10 +4045,10 @@
       <c r="B43" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="48">
+      <c r="C43" s="61">
         <v>15420</v>
       </c>
-      <c r="D43" s="49"/>
+      <c r="D43" s="62"/>
       <c r="E43" s="24">
         <v>8366.48</v>
       </c>
@@ -4061,10 +4061,10 @@
       <c r="B44" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="50">
+      <c r="C44" s="63">
         <v>95198.15</v>
       </c>
-      <c r="D44" s="51"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="43">
         <v>27637.77</v>
       </c>
